--- a/fgt-tables/fgt_num_membros_familia_rm.xlsx
+++ b/fgt-tables/fgt_num_membros_familia_rm.xlsx
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1498820182265692</v>
+        <v>0.1498345328195135</v>
       </c>
       <c r="C3">
-        <v>0.00182388635214232</v>
+        <v>0.001823395433414458</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2204573938849086</v>
+        <v>0.2203693486326254</v>
       </c>
       <c r="C4">
-        <v>0.002160437886489737</v>
+        <v>0.002159686202379829</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.277836915883385</v>
+        <v>0.2777400775278588</v>
       </c>
       <c r="C5">
-        <v>0.002618848711783344</v>
+        <v>0.002619032507492537</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3643600372658765</v>
+        <v>0.3642550685035588</v>
       </c>
       <c r="C6">
-        <v>0.003793021926492106</v>
+        <v>0.003793583460238204</v>
       </c>
     </row>
     <row r="7">
@@ -434,10 +434,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.433777468496921</v>
+        <v>0.4334944773393494</v>
       </c>
       <c r="C7">
-        <v>0.006279151476890086</v>
+        <v>0.006285647358895166</v>
       </c>
     </row>
     <row r="8">
@@ -445,10 +445,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5023977302937522</v>
+        <v>0.5023274002506929</v>
       </c>
       <c r="C8">
-        <v>0.00907457319133045</v>
+        <v>0.009073806279807927</v>
       </c>
     </row>
     <row r="9">
@@ -456,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.530592143144632</v>
+        <v>0.5304364065359224</v>
       </c>
       <c r="C9">
-        <v>0.01691131237280655</v>
+        <v>0.01691841646659278</v>
       </c>
     </row>
     <row r="10">
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.589070060527252</v>
+        <v>0.5890700605272519</v>
       </c>
       <c r="C10">
         <v>0.01906295794490823</v>
@@ -489,10 +489,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.645414891559059</v>
+        <v>0.6454148915590588</v>
       </c>
       <c r="C12">
-        <v>0.03586991587984284</v>
+        <v>0.03586991587984283</v>
       </c>
     </row>
     <row r="13">
@@ -511,10 +511,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.7021240783920852</v>
+        <v>0.7021240783920853</v>
       </c>
       <c r="C14">
-        <v>0.06342318874191911</v>
+        <v>0.06342318874191913</v>
       </c>
     </row>
     <row r="15">
@@ -522,10 +522,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7623558084268814</v>
+        <v>0.7623558084268813</v>
       </c>
       <c r="C15">
-        <v>0.07229217644923758</v>
+        <v>0.07229217644923759</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +580,7 @@
         <v>0.9694554657405204</v>
       </c>
       <c r="C20">
-        <v>1.110223024625156e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="21">
@@ -610,10 +610,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.7689086570481054</v>
+        <v>0.7689086570481053</v>
       </c>
       <c r="C23">
-        <v>1.110223024625156e-16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
